--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H2">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I2">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J2">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N2">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O2">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P2">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q2">
-        <v>0.6718264819186666</v>
+        <v>0.9698732178333332</v>
       </c>
       <c r="R2">
-        <v>4.030958891511999</v>
+        <v>5.819239306999999</v>
       </c>
       <c r="S2">
-        <v>0.02348072965058768</v>
+        <v>0.01376146776643476</v>
       </c>
       <c r="T2">
-        <v>0.01723781533374798</v>
+        <v>0.009711572450192475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H3">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I3">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J3">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.715908</v>
       </c>
       <c r="O3">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P3">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q3">
-        <v>0.3727695383995555</v>
+        <v>0.5698895375044444</v>
       </c>
       <c r="R3">
-        <v>3.354925845596</v>
+        <v>5.129005837539999</v>
       </c>
       <c r="S3">
-        <v>0.01302851404150808</v>
+        <v>0.008086125440514546</v>
       </c>
       <c r="T3">
-        <v>0.01434685734617097</v>
+        <v>0.008559660320003033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H4">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I4">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J4">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N4">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O4">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P4">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q4">
-        <v>4.397359152885445</v>
+        <v>14.03892332641</v>
       </c>
       <c r="R4">
-        <v>39.57623237596901</v>
+        <v>126.35030993769</v>
       </c>
       <c r="S4">
-        <v>0.1536902819766199</v>
+        <v>0.1991973665005768</v>
       </c>
       <c r="T4">
-        <v>0.1692420596843541</v>
+        <v>0.2108626444676562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H5">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I5">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J5">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N5">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O5">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P5">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q5">
-        <v>0.3854581319553333</v>
+        <v>0.7485353958199999</v>
       </c>
       <c r="R5">
-        <v>2.312748791732</v>
+        <v>4.49121237492</v>
       </c>
       <c r="S5">
-        <v>0.0134719878296781</v>
+        <v>0.01062091986066427</v>
       </c>
       <c r="T5">
-        <v>0.009890137224959667</v>
+        <v>0.00749526391117302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H6">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I6">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J6">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N6">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O6">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P6">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q6">
-        <v>0.5136560795612223</v>
+        <v>6.184381119248333</v>
       </c>
       <c r="R6">
-        <v>4.622904716051</v>
+        <v>55.65943007323499</v>
       </c>
       <c r="S6">
-        <v>0.0179525813021136</v>
+        <v>0.08774977993310112</v>
       </c>
       <c r="T6">
-        <v>0.01976918642574119</v>
+        <v>0.09288853047208831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H7">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I7">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J7">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N7">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O7">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P7">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q7">
-        <v>3.420868347992334</v>
+        <v>6.387091567277221</v>
       </c>
       <c r="R7">
-        <v>30.787815131931</v>
+        <v>57.48382410549499</v>
       </c>
       <c r="S7">
-        <v>0.1195613555155821</v>
+        <v>0.09062602524555645</v>
       </c>
       <c r="T7">
-        <v>0.131659658671123</v>
+        <v>0.09593321275567801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H8">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I8">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J8">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N8">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O8">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P8">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q8">
-        <v>0.3419017127819999</v>
+        <v>0.25700339665</v>
       </c>
       <c r="R8">
-        <v>1.367606851128</v>
+        <v>1.0280135866</v>
       </c>
       <c r="S8">
-        <v>0.01194966542845944</v>
+        <v>0.003646604415744357</v>
       </c>
       <c r="T8">
-        <v>0.005848373794769782</v>
+        <v>0.001715624310902414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H9">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I9">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J9">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.715908</v>
       </c>
       <c r="O9">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P9">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q9">
-        <v>0.189707531754</v>
+        <v>0.1510130851753333</v>
       </c>
       <c r="R9">
-        <v>1.138245190524</v>
+        <v>0.9060785110519999</v>
       </c>
       <c r="S9">
-        <v>0.006630389521226439</v>
+        <v>0.002142714806160711</v>
       </c>
       <c r="T9">
-        <v>0.004867541676025323</v>
+        <v>0.001512130132723552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H10">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I10">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J10">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N10">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O10">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P10">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q10">
-        <v>2.2378763959935</v>
+        <v>3.720126418437</v>
       </c>
       <c r="R10">
-        <v>13.427258375961</v>
+        <v>22.320758510622</v>
       </c>
       <c r="S10">
-        <v>0.07821509282528755</v>
+        <v>0.05278463087036248</v>
       </c>
       <c r="T10">
-        <v>0.05741973722696982</v>
+        <v>0.03725051539956473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H11">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I11">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J11">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N11">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O11">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P11">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q11">
-        <v>0.1961649310769999</v>
+        <v>0.198351841974</v>
       </c>
       <c r="R11">
-        <v>0.7846597243079998</v>
+        <v>0.793407367896</v>
       </c>
       <c r="S11">
-        <v>0.00685607941561141</v>
+        <v>0.002814401335708632</v>
       </c>
       <c r="T11">
-        <v>0.003355484337965405</v>
+        <v>0.00132409628292307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H12">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I12">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J12">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N12">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O12">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P12">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q12">
-        <v>0.2614066252365</v>
+        <v>1.6387780635655</v>
       </c>
       <c r="R12">
-        <v>1.568439751419</v>
+        <v>9.832668381392999</v>
       </c>
       <c r="S12">
-        <v>0.009136314898634547</v>
+        <v>0.02325251495084837</v>
       </c>
       <c r="T12">
-        <v>0.006707206777524098</v>
+        <v>0.01640947662175511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H13">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I13">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J13">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N13">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O13">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P13">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q13">
-        <v>1.7409268298565</v>
+        <v>1.692493613930166</v>
       </c>
       <c r="R13">
-        <v>10.445560979139</v>
+        <v>10.154961683581</v>
       </c>
       <c r="S13">
-        <v>0.06084641396774231</v>
+        <v>0.02401468138797406</v>
       </c>
       <c r="T13">
-        <v>0.04466893760562823</v>
+        <v>0.01694734327223732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H14">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I14">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J14">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N14">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O14">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P14">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q14">
-        <v>0.9553665638719998</v>
+        <v>0.7904212124666667</v>
       </c>
       <c r="R14">
-        <v>5.732199383232</v>
+        <v>4.7425272748</v>
       </c>
       <c r="S14">
-        <v>0.03339062184542631</v>
+        <v>0.01121523497840882</v>
       </c>
       <c r="T14">
-        <v>0.02451292535690279</v>
+        <v>0.007914676609162875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H15">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I15">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J15">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.715908</v>
       </c>
       <c r="O15">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P15">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q15">
-        <v>0.5300945446506666</v>
+        <v>0.4644450129395556</v>
       </c>
       <c r="R15">
-        <v>4.770850901856</v>
+        <v>4.180005116456</v>
       </c>
       <c r="S15">
-        <v>0.0185271153001387</v>
+        <v>0.006589979965760224</v>
       </c>
       <c r="T15">
-        <v>0.02040185698847232</v>
+        <v>0.006975898461815515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H16">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I16">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J16">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N16">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O16">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P16">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q16">
-        <v>6.253236538109334</v>
+        <v>11.441353976324</v>
       </c>
       <c r="R16">
-        <v>56.27912884298401</v>
+        <v>102.972185786916</v>
       </c>
       <c r="S16">
-        <v>0.2185542852868635</v>
+        <v>0.1623406245831707</v>
       </c>
       <c r="T16">
-        <v>0.2406695915908176</v>
+        <v>0.1718475199020226</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H17">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I17">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J17">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N17">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O17">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P17">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q17">
-        <v>0.5481382781919999</v>
+        <v>0.6100366978480001</v>
       </c>
       <c r="R17">
-        <v>3.288829669151999</v>
+        <v>3.660220187088</v>
       </c>
       <c r="S17">
-        <v>0.01915775437224151</v>
+        <v>0.008655770877488219</v>
       </c>
       <c r="T17">
-        <v>0.01406420656394453</v>
+        <v>0.006108443330007597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H18">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I18">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J18">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N18">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O18">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P18">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q18">
-        <v>0.7304413519706667</v>
+        <v>5.040108266472667</v>
       </c>
       <c r="R18">
-        <v>6.573972167736001</v>
+        <v>45.360974398254</v>
       </c>
       <c r="S18">
-        <v>0.02552935374361943</v>
+        <v>0.07151376713273047</v>
       </c>
       <c r="T18">
-        <v>0.02811264547382317</v>
+        <v>0.07570171392505852</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.539082</v>
+      </c>
+      <c r="I19">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J19">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.14626633333333</v>
+      </c>
+      <c r="N19">
+        <v>30.438799</v>
+      </c>
+      <c r="O19">
+        <v>0.2210166151802524</v>
+      </c>
+      <c r="P19">
+        <v>0.2254859874041698</v>
+      </c>
+      <c r="Q19">
+        <v>5.205311960279777</v>
+      </c>
+      <c r="R19">
+        <v>46.84780764251799</v>
+      </c>
+      <c r="S19">
+        <v>0.07385783155828633</v>
+      </c>
+      <c r="T19">
+        <v>0.07818305006046287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J20">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.5407</v>
+      </c>
+      <c r="N20">
+        <v>3.0814</v>
+      </c>
+      <c r="O20">
+        <v>0.03356114336260917</v>
+      </c>
+      <c r="P20">
+        <v>0.02282654192720314</v>
+      </c>
+      <c r="Q20">
+        <v>0.3480061260666667</v>
+      </c>
+      <c r="R20">
+        <v>2.0880367564</v>
+      </c>
+      <c r="S20">
+        <v>0.004937836202021239</v>
+      </c>
+      <c r="T20">
+        <v>0.003484668556945376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J21">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9053026666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.715908</v>
+      </c>
+      <c r="O21">
+        <v>0.01972025221169104</v>
+      </c>
+      <c r="P21">
+        <v>0.02011903285273785</v>
+      </c>
+      <c r="Q21">
+        <v>0.2044855416008889</v>
+      </c>
+      <c r="R21">
+        <v>1.840369874408</v>
+      </c>
+      <c r="S21">
+        <v>0.002901431999255554</v>
+      </c>
+      <c r="T21">
+        <v>0.003071343938195756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J22">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.301646</v>
+      </c>
+      <c r="N22">
+        <v>66.904938</v>
+      </c>
+      <c r="O22">
+        <v>0.4857978442449273</v>
+      </c>
+      <c r="P22">
+        <v>0.4956215916122303</v>
+      </c>
+      <c r="Q22">
+        <v>5.037391724132001</v>
+      </c>
+      <c r="R22">
+        <v>45.33652551718801</v>
+      </c>
+      <c r="S22">
+        <v>0.07147522229081726</v>
+      </c>
+      <c r="T22">
+        <v>0.0756609118429869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J23">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.189092</v>
+      </c>
+      <c r="N23">
+        <v>2.378184</v>
+      </c>
+      <c r="O23">
+        <v>0.02590204912269207</v>
+      </c>
+      <c r="P23">
+        <v>0.01761722489342626</v>
+      </c>
+      <c r="Q23">
+        <v>0.268586551864</v>
+      </c>
+      <c r="R23">
+        <v>1.611519311184</v>
+      </c>
+      <c r="S23">
+        <v>0.003810957048830946</v>
+      </c>
+      <c r="T23">
+        <v>0.002689421369322575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.585544</v>
-      </c>
-      <c r="H19">
-        <v>1.756632</v>
-      </c>
-      <c r="I19">
-        <v>0.4851805936269489</v>
-      </c>
-      <c r="J19">
-        <v>0.5149870038950203</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.307871</v>
-      </c>
-      <c r="N19">
-        <v>24.923613</v>
-      </c>
-      <c r="O19">
-        <v>0.3504292325619838</v>
-      </c>
-      <c r="P19">
-        <v>0.3635543741978111</v>
-      </c>
-      <c r="Q19">
-        <v>4.864624016824</v>
-      </c>
-      <c r="R19">
-        <v>43.781616151416</v>
-      </c>
-      <c r="S19">
-        <v>0.1700214630786594</v>
-      </c>
-      <c r="T19">
-        <v>0.1872257779210598</v>
+      <c r="G24">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J24">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.824249</v>
+      </c>
+      <c r="N24">
+        <v>29.472747</v>
+      </c>
+      <c r="O24">
+        <v>0.2140020958778281</v>
+      </c>
+      <c r="P24">
+        <v>0.2183296213102325</v>
+      </c>
+      <c r="Q24">
+        <v>2.219055517624667</v>
+      </c>
+      <c r="R24">
+        <v>19.971499658622</v>
+      </c>
+      <c r="S24">
+        <v>0.03148603386114815</v>
+      </c>
+      <c r="T24">
+        <v>0.03332990029133061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J25">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.14626633333333</v>
+      </c>
+      <c r="N25">
+        <v>30.438799</v>
+      </c>
+      <c r="O25">
+        <v>0.2210166151802524</v>
+      </c>
+      <c r="P25">
+        <v>0.2254859874041698</v>
+      </c>
+      <c r="Q25">
+        <v>2.291791290130444</v>
+      </c>
+      <c r="R25">
+        <v>20.626121611174</v>
+      </c>
+      <c r="S25">
+        <v>0.03251807698843553</v>
+      </c>
+      <c r="T25">
+        <v>0.03442238131579163</v>
       </c>
     </row>
   </sheetData>
